--- a/va_facility_data_2025-02-20/Olin E. Teague Veterans' Center - Facility Data.xlsx"; filename*=UTF-8''Olin%20E.%20Teague%20Veterans%27%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Olin E. Teague Veterans' Center - Facility Data.xlsx"; filename*=UTF-8''Olin%20E.%20Teague%20Veterans%27%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R5271354662d0488b9a186b72a9323e7d"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R7c98b27821154df48de9c638f0028a17"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R740d976d650b4b9290f7c067e5256288"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rbe30b5b0bb9b48a7af41caca87c3cdec"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc8b28c10fa0f44b891ccb8a4d3045619"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Ra058b19d47d84c1e9d52b85d95f2199c"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R18cfb823be6e4722ac7c99c4bc12c913"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R60e20207731d411cae0801ff5ab00a3f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7b33385f5c394a309e63d471d06923da"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rad90736b3340478a9b2ed3651edb1bab"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Re3de2d2d3a1d4db88f3c526193723d88"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbab69e19af1c46f283cd4eded4591cb2"/>
   </x:sheets>
 </x:workbook>
 </file>
